--- a/DeclaracionEsfuerzo.xlsx
+++ b/DeclaracionEsfuerzo.xlsx
@@ -1,34 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARIA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\mf.mena\Documents\Yoliii\5 Semestre\Arqui-Soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACBF4B0-6DAE-4EB4-AABF-10253E2CCCBF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Declaracion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Nota: De acuerdo al programa del curso cada experimento tiene una nota global (en el ejemplo de abajo es B3) y una nota individual (columna K), esta última depende del esfuerzo de cada miembro (columna J). A ese esfuerzo se llega a partir de una reunión de grupo en donde se revisan las contribuciones de cada miembro para poner en funcionamiento cada uno de los puntos de arquitectura. Las celdas B12 a B20 ejemplifican los puntos para el exp. 1. Si el miembro del equipo contribuyó en ese punto de la arquitectura se marca con X. Luego, a partir de las X, el grupo estima el porcentaje de esfuerzo de cada miembro. 
 Se espera que Uds. suban a github un excel similar a este, en donde enuncien el esfuerzo de cada miembro. A partir de allí y la nota global del experimento, el instructor calculará la nota individual. El máximo valor de la nota individual es 5.</t>
   </si>
   <si>
-    <t>Nota global de experimento</t>
-  </si>
-  <si>
     <t>INTEGRANTES/ARTEFACTO</t>
   </si>
   <si>
@@ -59,43 +55,43 @@
     <t>Servidores de mensajería (Por ejemplo, Mosquitto, Kafka)</t>
   </si>
   <si>
-    <t>Programa P</t>
-  </si>
-  <si>
-    <t>Código de notificación</t>
-  </si>
-  <si>
-    <t>Código de persistencia</t>
-  </si>
-  <si>
-    <t>Documentación</t>
-  </si>
-  <si>
-    <t>Montaje físico de cerradura</t>
-  </si>
-  <si>
-    <t>Otra cuál?</t>
-  </si>
-  <si>
-    <t>Maria F Mena B</t>
-  </si>
-  <si>
-    <t>Juan Camilo Sanguino</t>
-  </si>
-  <si>
-    <t>Juan Carlos Gloria</t>
-  </si>
-  <si>
-    <t>Rafael Forero</t>
-  </si>
-  <si>
-    <t>Fabian Alvarez</t>
+    <t>Código de persistencia con seguridad</t>
+  </si>
+  <si>
+    <t>Horarios</t>
+  </si>
+  <si>
+    <t>Código de cambio de claves</t>
+  </si>
+  <si>
+    <t>Programa P bach modificaciones</t>
+  </si>
+  <si>
+    <t>Codigo de rutas entrega anterior</t>
+  </si>
+  <si>
+    <t>mf.mena</t>
+  </si>
+  <si>
+    <t>jc.gloria</t>
+  </si>
+  <si>
+    <t>ra.forero11</t>
+  </si>
+  <si>
+    <t>fc.alvalez10</t>
+  </si>
+  <si>
+    <t>jc.sanguino10</t>
+  </si>
+  <si>
+    <t>Nota global de experimento parcial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -116,18 +112,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -182,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -203,13 +196,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,7 +235,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -256,7 +247,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -303,23 +294,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,23 +329,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,16 +480,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -547,7 +510,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -560,11 +523,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -575,9 +540,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -604,138 +569,120 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3">
-        <v>23</v>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>20</v>
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>16</v>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6">
+        <v>20</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6">
         <v>20</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -745,203 +692,182 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <f>SUM(J5:J9)</f>
-        <v>100</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>5</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>6</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>7</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>9</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>